--- a/document/Baseballテスト仕様書.xlsx
+++ b/document/Baseballテスト仕様書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knmrmst/Documents/workspace-spring-tool-suite/ex-intermediate/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A69A8F-EE8B-EE47-9D92-73960C9C6AAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEBAB22-9708-C74D-A44A-BE9AA06ADA10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{393E031A-AA8A-4A4C-8C8B-5431BBC6D7EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{393E031A-AA8A-4A4C-8C8B-5431BBC6D7EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="球団情報システム機能テスト仕様書" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,194 +26,318 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>作成者</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="1">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユースケース名</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テスト概要</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>事前条件</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>実行内容</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>確認内容</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テスト実施者</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テスト実施日</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>検証結果（○/×）</t>
     <rPh sb="0" eb="1">
       <t>マル</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>金森聖人</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースに登録されている全ての球団の名前が表示されていること</t>
-    <rPh sb="0" eb="2">
-      <t>トウロクサレテイル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>球団一覧画面が正しく表示されていることを確認する</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金森聖人</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>球団一覧のページにアクセスしてデータベースに登録されている球団が全て表示されていることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースに球団情報が登録されていること</t>
-    <rPh sb="0" eb="2">
-      <t>キュウダンガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>localhost:8080:/baseball/showListにアクセスして球団一覧のページを表示させる</t>
-    <rPh sb="0" eb="4">
-      <t>キュウダンイチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースに球団情報が登録されていること
-No1のテストの検証結果が◯であること</t>
-    <rPh sb="0" eb="2">
-      <t>キュウダンガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>球団一覧画面の球団名をクリックする</t>
     <rPh sb="0" eb="2">
       <t>キュウダン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>球団一覧画面の球団名をクリックすると、その球団の詳細画面に遷移することを確認する</t>
     <rPh sb="0" eb="6">
       <t>ノ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>クリックした球団名と同じ球団の詳細情報が表示されること</t>
     <rPh sb="0" eb="3">
       <t>キュウダンメイト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>球団一覧画面からチーム詳細画面に遷移できることを確認する</t>
     <rPh sb="0" eb="6">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>チーム一覧画面が正しく表示されることを確認する</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>チーム一覧画面にて「球団名」「本拠地」「発足」「歴史」が全て表示されていることを確認する</t>
     <rPh sb="0" eb="2">
       <t>キュウダン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>localhost:8080:/baseball/showDetail?id=1~6にアクセスする</t>
-    <rPh sb="0" eb="1">
-      <t>スベテノコウモクガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>存在しない球団のIDにアクセスできないことを確認する</t>
     <rPh sb="0" eb="2">
       <t>キュウダンノ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>存在しない球団IDのページにアクセスした時に球団一覧画面にリダイレクトされることを確認する</t>
     <rPh sb="0" eb="1">
       <t>キュウdナn</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースに球団情報が登録されていること
-入力するIDがデータベースに球団情報として登録されていないこと</t>
-    <rPh sb="0" eb="2">
-      <t>キュウダンガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>localhost:8080:/baseball/showDetail?id=7,8,0にアクセスする</t>
-    <rPh sb="0" eb="1">
-      <t>スベテノコウモクガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>球団一覧画面にリダイレクトされること</t>
     <rPh sb="0" eb="1">
       <t>キュウダン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>「球団名」「本拠地」「発足」「歴史」が全て表示されていること</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>球団情報システム機能テスト仕様書</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>作成日</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>ユースケース名</t>
+  </si>
+  <si>
+    <t>テスト概要</t>
+  </si>
+  <si>
+    <t>事前条件</t>
+  </si>
+  <si>
+    <t>実行内容</t>
+  </si>
+  <si>
+    <t>確認内容</t>
+  </si>
+  <si>
+    <t>テスト実施者</t>
+  </si>
+  <si>
+    <t>テスト実施日</t>
+  </si>
+  <si>
+    <t>検証結果（○/×）</t>
+  </si>
+  <si>
+    <t>ホテル検索画面にアクセスした時に正しく表示されることの確認</t>
+    <rPh sb="0" eb="1">
+      <t>タダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しと検索フォームが表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホテル情報検索システム機能テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースにホテルの情報が存在すること</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイスルコト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索欄に値段を入力して検索ボタンを押すことで、入力した値段以下のホテルを検索できることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ネダンヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost:8080/ex-intermediate/hotel/serchにアクセスする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された値段以下のホテルが全て表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>ネダn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索欄に値段を入力せずに検索ボタンを押すことで、全てのホテルの情報が表示されることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ネダンヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost:8080/ex-intermediate/hotel/serchにアクセスして、検索フォームに値段を入力せずに検索ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサクフォームニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost:8080/ex-intermediate/hotel/serchにアクセスして、検索フォームに値段を入力して検索ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサクフォームニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに登録されている全てのホテルの情報が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>トウロクサレテイル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに6件の球団情報が登録されていること</t>
+    <rPh sb="0" eb="2">
+      <t>キュウダンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに６件の球団情報が登録されていること
+入力するIDがデータベースに球団情報として登録されていないこと</t>
+    <rPh sb="0" eb="2">
+      <t>キュウダンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080:/ex-intermediate/baseball/showDetail?id=7,8,0にアクセスする</t>
+    <rPh sb="1687" eb="1688">
+      <t>スベテノコウモクガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球団一覧画を表示する</t>
+    <rPh sb="0" eb="5">
+      <t>ヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080:/baseball/showList  にアクセスする</t>
+    <rPh sb="558" eb="562">
+      <t>キュウダンイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・データベースに登録されている全ての球団の名前が表示されていること
+・発足日順でならんでいること</t>
+    <rPh sb="0" eb="4">
+      <t>ホッソクビジュンデ</t>
+    </rPh>
+    <rPh sb="33" eb="616">
+      <t>トウロクサレテイル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに６件の球団情報が登録されていること
+球団一覧画面が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>キュウダンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホテル検索画面の表示</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホテル検索</t>
+    <rPh sb="0" eb="3">
+      <t>ホテルヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,13 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -236,14 +354,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴシック W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴシック W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +404,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -315,48 +469,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,170 +965,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA6E31A-44B2-AB41-A45B-3EA0E6DFA4E6}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6" style="8" customWidth="1"/>
-    <col min="2" max="6" width="28" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="8"/>
+    <col min="1" max="1" width="6" style="20" customWidth="1"/>
+    <col min="2" max="6" width="28" style="20" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4"/>
+      <c r="H1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2" t="s">
+    <row r="2" spans="1:9" ht="19">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="22">
         <v>43616</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="42">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" ht="38">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="84">
-      <c r="A4" s="10">
+    <row r="4" spans="1:9" ht="76">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" ht="76" customHeight="1">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
-    <row r="5" spans="1:9" ht="84">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="6" spans="1:9" ht="57">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="76">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="63">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="D7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="84">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1"/>
     <row r="9" spans="1:9" ht="60" customHeight="1"/>
@@ -842,12 +1133,162 @@
     <row r="11" spans="1:9" ht="60" customHeight="1"/>
     <row r="12" spans="1:9" ht="36" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{1D1AB656-8373-1046-A3BF-58F19A314488}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8279805D-6E1B-9B43-8A2C-2171C88E9495}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1"/>
+    <col min="2" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13">
+        <v>43616</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="42">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="105">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>